--- a/DataFiles/API.xlsx
+++ b/DataFiles/API.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Application Security\coe-application-security\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palak\Downloads\coe-application-security\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5388464C-0E46-4F63-AE85-33FB12AACEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dummy" sheetId="1" r:id="rId1"/>
+    <sheet name="ITS_Juno" sheetId="10" r:id="rId1"/>
     <sheet name="Fortify_Impact" sheetId="3" r:id="rId2"/>
+    <sheet name="Zoura" sheetId="4" r:id="rId3"/>
+    <sheet name="IAM" sheetId="1" r:id="rId4"/>
+    <sheet name="ITSM" sheetId="8" r:id="rId5"/>
+    <sheet name="Agent" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="172">
   <si>
     <t>Base_URL</t>
   </si>
@@ -33,85 +39,25 @@
     <t>Relative_URL</t>
   </si>
   <si>
-    <t>http://thetestingworldapi.com</t>
-  </si>
-  <si>
-    <t>Module_Name</t>
-  </si>
-  <si>
     <t>HTTP Method</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>Technicalskills_GET_Parameter</t>
-  </si>
-  <si>
-    <t>Technicalskills_GET</t>
-  </si>
-  <si>
-    <t>/api/technicalskills</t>
-  </si>
-  <si>
     <t>Request_Body</t>
   </si>
   <si>
-    <t>{
-  "id": 1,
-  "language": [
-    "sample string 1",
-    "sample string 2"
-  ],
-  "yearexp": "sample string 2",
-  "lastused": "sample string 3",
-  "st_id": "sample string 4"
-}</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Technicalskills_POST</t>
-  </si>
-  <si>
-    <t>/api/technicalskills/{Parameter}</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>Technicalskills_PUT</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>Params</t>
-  </si>
-  <si>
-    <t>Technicalskills_Headers_PUT</t>
-  </si>
-  <si>
-    <t>/api/technicalskills/6</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "{Parameter}"</t>
-  </si>
-  <si>
-    <t>{"Accept":"*/*", "Content-Type": "application/json", "Cache-Control":"cache"}</t>
-  </si>
-  <si>
-    <t>http://internal-intsecurityreportingservice-1794047522.ap-south-1.elb.amazonaws.com</t>
-  </si>
-  <si>
     <t>/securityreporting/v1/partner/{Parameter}/assessmentproductsusage</t>
-  </si>
-  <si>
-    <t>Assessment_Product_Usage</t>
   </si>
   <si>
     <t>AssessmentProductUsage</t>
@@ -181,11 +127,456 @@
   <si>
     <t>{'Content-Type': 'application/json; charset=UTF-8'}</t>
   </si>
+  <si>
+    <t>BillingBridge_C247</t>
+  </si>
+  <si>
+    <t>billingwebapi.dtitsupport247.net/billingbridge/v1</t>
+  </si>
+  <si>
+    <t>{"":""}</t>
+  </si>
+  <si>
+    <t>/getProductInfo/{Parameter}</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json","Connection": "keep-alive"}</t>
+  </si>
+  <si>
+    <t>/api/v1/employees</t>
+  </si>
+  <si>
+    <t>/api/v1/update/21</t>
+  </si>
+  <si>
+    <t>/api/v1/delete/2</t>
+  </si>
+  <si>
+    <t>{"name":"test","salary":"123","age":"23"}</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>GET_ALL</t>
+  </si>
+  <si>
+    <t>dummy.restapiexample.com</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>/todos/{Parameter}</t>
+  </si>
+  <si>
+    <t>{"content-type":"multipart/form-data"}</t>
+  </si>
+  <si>
+    <t>AssessmentProductUsage1</t>
+  </si>
+  <si>
+    <t>/securityreporting/v1/partner/50016305/assessmentproductsusage</t>
+  </si>
+  <si>
+    <t>internal-intauthzservice-1540055544.ap-south-1.elb.amazonaws.com</t>
+  </si>
+  <si>
+    <t>jsonplaceholder.typicode.com</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>/authorizationservice/v1/mgmt/$permissions$</t>
+  </si>
+  <si>
+    <t>/api/v1/employee/$1$</t>
+  </si>
+  <si>
+    <t>/api/v1/$create$</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>GATEWAY_API_GET</t>
+  </si>
+  <si>
+    <t>GATEWAY_API_POST</t>
+  </si>
+  <si>
+    <t>GATEWAY_API_DELETE</t>
+  </si>
+  <si>
+    <t>/sync/v1/$gateway$</t>
+  </si>
+  <si>
+    <t>/sync/v1/partners/$15038$/regids/$7255599$/$gateway$</t>
+  </si>
+  <si>
+    <t>{"partnerId":"$15038$","clientId": "$259542$","siteId": "$259542$","regId": "$7255599$"}</t>
+  </si>
+  <si>
+    <t>rmmsync.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>credentials.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>Techview-Console</t>
+  </si>
+  <si>
+    <t>ITS-ITGue</t>
+  </si>
+  <si>
+    <t>Techview-ITGue</t>
+  </si>
+  <si>
+    <t>Techview-References</t>
+  </si>
+  <si>
+    <t>Techview-Approval</t>
+  </si>
+  <si>
+    <t>Techview-Notifications-CurrentTime</t>
+  </si>
+  <si>
+    <t>Techview-Notifications-AllScheduled</t>
+  </si>
+  <si>
+    <t>Techview-Servers-and-Desktops</t>
+  </si>
+  <si>
+    <t>Techview-Credentials</t>
+  </si>
+  <si>
+    <t>Techview-Credentials-Custom</t>
+  </si>
+  <si>
+    <t>Techview-Credentials-Desktop</t>
+  </si>
+  <si>
+    <t>Techview-Credentials-Servers</t>
+  </si>
+  <si>
+    <t>Techview-Recover-Credentials-Recover</t>
+  </si>
+  <si>
+    <t>Techview-Recover-Credentials-SBMLogin</t>
+  </si>
+  <si>
+    <t>Techview-Recover-Credentials-Passphrase</t>
+  </si>
+  <si>
+    <t>Techview-Recover-Credentials-Appliance</t>
+  </si>
+  <si>
+    <t>Techview-Recover-GetPassword</t>
+  </si>
+  <si>
+    <t>NIF-Antivirus</t>
+  </si>
+  <si>
+    <t>NIF-Backup</t>
+  </si>
+  <si>
+    <t>NIF-Quickbooks</t>
+  </si>
+  <si>
+    <t>NIF-Software</t>
+  </si>
+  <si>
+    <t>NIF-On-Premises</t>
+  </si>
+  <si>
+    <t>NIF-Email</t>
+  </si>
+  <si>
+    <t>NIF-SupportedProtocols</t>
+  </si>
+  <si>
+    <t>NIF-SQLServer</t>
+  </si>
+  <si>
+    <t>NIF-Database</t>
+  </si>
+  <si>
+    <t>NIF-NetworkDrives</t>
+  </si>
+  <si>
+    <t>NIF-Resources</t>
+  </si>
+  <si>
+    <t>NIF-FileSharing</t>
+  </si>
+  <si>
+    <t>NIF-Network</t>
+  </si>
+  <si>
+    <t>NIF-Firewall</t>
+  </si>
+  <si>
+    <t>NIF-Hosting-And-Registrar</t>
+  </si>
+  <si>
+    <t>NIF-ISP-Information</t>
+  </si>
+  <si>
+    <t>Local-Area-Network-Information</t>
+  </si>
+  <si>
+    <t>NIF-Wireless-Information</t>
+  </si>
+  <si>
+    <t>NIF-Printers</t>
+  </si>
+  <si>
+    <t>NIF-RemoteAccess</t>
+  </si>
+  <si>
+    <t>NIF-WebServer-Intranet</t>
+  </si>
+  <si>
+    <t>internal-entitlement-partnerspecific-qa-2003801024.us-east-1.elb.amazonaws.com</t>
+  </si>
+  <si>
+    <t>noc.qa.itsupport247.net</t>
+  </si>
+  <si>
+    <t>continuum.itglue.com</t>
+  </si>
+  <si>
+    <t>/search.json?limit={limit}&amp;connected_account_ids={id}&amp;query=sandbox-continuum</t>
+  </si>
+  <si>
+    <t>reference.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>approval.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>notificationinfo.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>rmmitswebapi.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>networkinfo.qaitsupport247.local</t>
+  </si>
+  <si>
+    <t>/TechViewApplication/KnowledgeBase/SiteInformation?partnerid=$900000111$&amp;siteid=$990002595$&amp;from=$IHD$</t>
+  </si>
+  <si>
+    <t>/entitlement/v1/partners/$900000111$/clients/$990002595$/sites/$990002595$/$features$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/$references$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/$approval$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/notifications/$current$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/$notifications$</t>
+  </si>
+  <si>
+    <t>/v1/partner/$900000111$/sites/$990002595$/$endpoints$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/$credentials$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$10330$/sites/$181903$/$credentials$?type=$Custom$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$16293$/sites/$208621$/$credentials$?type=$Desktop$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$16293$/sites/$208621$/$credentials$?type=$Server$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002583$/$continuity$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002583$/$continuity$?type=$sbmlogin$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002583$/$continuity$?type=$passphrase$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002583$/$continuity$?type=$appliance$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002583$/$credentials$/$900021393$/$GetPassword$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$antiviruses$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$BackupSoftwares$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$quickbooks$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$microsoftoffices$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$premiseemails$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$hostedemailservices$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$clientconnectivities$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$sqlservers$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$databases$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$networkdrives$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$resources$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$filesharings$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$activedirectories$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$firewalls$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$hostingregistrars$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$isps$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$lans$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$printers$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$remoteaccesses$</t>
+  </si>
+  <si>
+    <t>/v1/partners/$900000111$/sites/$990002595$/nifs/$webservers$</t>
+  </si>
+  <si>
+    <t>Mapping_API</t>
+  </si>
+  <si>
+    <t>qa.agent.exec.itsupport247.net</t>
+  </si>
+  <si>
+    <t>Packages_API</t>
+  </si>
+  <si>
+    <t>/agent/v1/bb78b736-68ea-4d82-9d2d-7c848e9f31fd/asset</t>
+  </si>
+  <si>
+    <t>{"createTimeUTC": "2019-11-08T06:07:08.104Z","agentInstalledUTC":"2019-10-07T09:48:09.829Z","createdBy":"/agent/plugin/asset","name":"asset","type":"assetCollection","endpointID":"5e09a52f-c400-4880-8b60-62da19c2098b","partnerID":"150151","clientID":"259542","siteID":"259542","regID":"7255599","friendlyName":"RMM-PN-LT-500","remoteAddress":"10.4.36.95","resourceType":"Desktop","endpointType":"Server","networks":[{"vendor":"Intel Corporation","product":"Intel(R) Dual Band Wireless-AC 8265","dhcpEnabled":true,"dhcpServer":"1.1.1.1","dhcpServers":["1.1.1.1"],"dhcpLeaseObtained":"2019-09-12T09:43:44Z","dhcpLeaseExpires":"2019-09-20T14:46:28Z","dnsServers":["10.4.17.6"],"ipEnabled":true,"ipv4":"10.4.36.111","ipv4List":["10.4.36.111"],"ipv6":"fe80::8daa:9908:869a:67bc","ipv6List":["fe80::8daa:9908:869a:67bc"],"subnetMask":"255.255.254.0","subnetMasks":["255.255.254.0"],"defaultIPGateway":"10.4.36.1","defaultIPGateways":["10.4.36.1"],"macAddress":"60:F6:77:4A:24:79","winsPrimaryServer":"0.0.0.0","winsSecondaryServer":"0.0.0.0","logicalName":"Intel(R) Dual Band Wireless-AC 8265","interfaceIndex":13,"speed":173300000,"dhcpLeaseDuration":0}],"system":{"product":"Dell Inc.","model":"Latitude 7480","timeZone":"+0530","timeZoneDescription":"IST","systemName":"RMM-PN-LT-500","domain":"CORP","domainRole":1}}</t>
+  </si>
+  <si>
+    <t>Asset_API</t>
+  </si>
+  <si>
+    <t>/agent/$v2$/endpoints/$48b56509-6823-4083-b0b6-10a8e714430d$/$mapping$</t>
+  </si>
+  <si>
+    <t>/agent/$v1$/endpoints/$4f698f3d-9178-437d-92bd-a3b02804a5ee$/$packages$/$control$/$data$</t>
+  </si>
+  <si>
+    <t>{"Continuum-Probe-EndpointId":"$3792393741297393242$"}</t>
+  </si>
+  <si>
+    <t>HTTP_Method</t>
+  </si>
+  <si>
+    <t>$http$</t>
+  </si>
+  <si>
+    <t>ACMS_Summary_API</t>
+  </si>
+  <si>
+    <t>internal-qaplatformagentconfigurationserv-1810934581.us-east-1.elb.amazonaws.com</t>
+  </si>
+  <si>
+    <t>/agent-configuration/v1/partners/$50000027$/clients/$50000445$/sites/$50000445$/endpoints/$03ebf614-d085-4915-956b-38e413dc6211$/$summary$</t>
+  </si>
+  <si>
+    <t>ACMS_Batch_Profiles_API</t>
+  </si>
+  <si>
+    <t>/agent-configuration/v1/batchProfiles</t>
+  </si>
+  <si>
+    <t>/agent-configuration/v1/profiles</t>
+  </si>
+  <si>
+    <t>ACMS_AGENT-Configuration_Profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"description": "Change Agent core log level","tag": "Agent-core-log-level","targets": [{"partnerID":"$1683$"},{"partnerID":"$50000006$"}],"condition": "OSType == 'windows' ","configurations": [{"packageName":"platform-agent-core","fileName": "config/platform_agent_core_static_cfg.json","patch":[{"op": "replace","path": "/MailboxParallelThreads","value": 9}]}]}
+</t>
+  </si>
+  <si>
+    <t>rmmitsapi.dtitsupport247.net</t>
+  </si>
+  <si>
+    <t>Suspension_family_1</t>
+  </si>
+  <si>
+    <t>Suspension_family_91</t>
+  </si>
+  <si>
+    <t>Suspension_family_32</t>
+  </si>
+  <si>
+    <t>Suspension_family_91_Filter</t>
+  </si>
+  <si>
+    <t>Suspension_family_96_Filter</t>
+  </si>
+  <si>
+    <t>Suspension_family_32_Filter</t>
+  </si>
+  <si>
+    <t>/rmmitsapi/v2/partners/$50016301$/sites/$50110612$/conditions/$1028$/family/$1$/$suspension$</t>
+  </si>
+  <si>
+    <t>/rmmitsapi/v2/partners/$1674$/conditions/$25007$/family/$91$/$suspension$</t>
+  </si>
+  <si>
+    <t>/rmmitsapi/v2/partners/$50016472$/sites/$50110970$/resources/$53757996$/conditions/$5$/family/$32$/$suspension$?filtervalue=$C:$</t>
+  </si>
+  <si>
+    <t>/rmmitsapi/v2/partners/$50016364$/sites/$50110150$/conditions/$25004$/family/$96$/$suspension$?filtervalue=$C:$</t>
+  </si>
+  <si>
+    <t>/rmmitsapi/v2/partners/$11258$/conditions/$25007$/family/$91$/$suspension$?filtervalue=$C:$</t>
+  </si>
+  <si>
+    <t>/rmmitsapi/v2/partners/$50016472$/sites/$50110970$/resources/$53757996$/conditions/$5$/family/$32$/$suspension$</t>
+  </si>
+  <si>
+    <t>{"createdTime":"2020-06-04T13:49:16.401Z","modifiedTime":"2020-06-04T13:49:16.401Z","id":"2e6f6ae4-a66a-11ea-898b-12e97a1f6711","description":"platform-hyperv-plugin","tag":"rmm-core","targets":["partnerID":"$1683$"}],"configurations":[{"packageName":"$platform-hyperv-plugin$"}],"createdBy":"santoshiMandloi","modifiedBy":"santoshiMandloi"},{"createdTime":"2020-06-04T13:49:40.15Z","modifiedTime":"2020-06-04T13:49:40.15Z","id":"3c972fdd-a66a-11ea-be76-12b59f5b51df","description":"platform-filesystem-plugin","tag":"rmm-core","targets":[{"partnerID":"1683"}],"configurations":[{"packageName":"platform-filesystem-plugin"}],"createdBy":"santoshiMandloi","modifiedBy":"santoshiMandloi"},{"createdTime":"2020-06-04T13:49:55.827Z","modifiedTime":"2020-06-04T13:49:55.827Z","id":"45ef4b05-a66a-11ea-be7b-12b59f5b51df","description":"platform-registry-plugin","tag":"rmm-core","targets":[{"partnerID":"1683"}],"configurations":[{"packageName":"platform-registry-plugin"}],"createdBy":"santoshiMandloi","modifiedBy":"santoshiMandloi"}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,18 +702,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -369,6 +750,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -658,323 +1108,2403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://rmmitsapi.dtitsupport247.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://rmmitsapi.dtitsupport247.net" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://rmmitsapi.dtitsupport247.net" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" tooltip="http://rmmitsapi.dtitsupport247.net/rmmitsapi/v2/partners/50016364/sites/50110150/conditions/25004/family/96/suspension?filtervalue=C:" display="http://rmmitsapi.dtitsupport247.net/rmmitsapi/v2/partners/50016364/sites/50110150/conditions/25004/family/96/suspension?filtervalue=C:" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" display="http://rmmitsapi.dtitsupport247.net" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" display="http://rmmitsapi.dtitsupport247.net/rmmitsapi/v2/partners/11258/conditions/25007/family/91/suspension?filtervalue=C:" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" display="http://rmmitsapi.dtitsupport247.net" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" display="http://rmmitsapi.dtitsupport247.net/rmmitsapi/v2/partners/50016472/sites/50110970/resources/53757996/conditions/5/family/32/suspension" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" display="http://rmmitsapi.dtitsupport247.net" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://internal-intsecurityreportingservice-1794047522.ap-south-1.elb.amazonaws.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" display="http://internal-intsecurityreportingservice-1794047522.ap-south-1.elb.amazonaws.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" display="http://internal-intsecurityportalservice-1892692536.ap-south-1.elb.amazonaws.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://internal-intsecurityreportingservice-1794047522.ap-south-1.elb.amazonaws.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://billingwebapi.dtitsupport247.net/billingbridge/v1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://www.thetestingworldapi.com/Help/Api/GET-api-technicalskills"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.thetestingworldapi.com/Help/Api/GET-api-technicalskills"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C3:C6" r:id="rId3" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D3:D6" r:id="rId4" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://jsonplaceholder.typicode.com" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="http://billingwebapi.dtitsupport247.net/billingbridge/v1" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="http://internal-intauthzservice-1540055544.ap-south-1.elb.amazonaws.com" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://noc.qa.itsupport247.net" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" tooltip="https://rmmsync.qaitsupport247.local/sync/v1/partners/15038/regids/7255599/gateway" display="https://rmmsync.qaitsupport247.local/sync/v1/partners/15038/regids/7255599/gateway" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://dummy.restapiexample.com" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" tooltip="https://qa.agent.exec.itsupport247.net/agent/v1/bb78b736-68ea-4d82-9d2d-7c848e9f31fd/asset" display="https://qa.agent.exec.itsupport247.net/agent/v1/bb78b736-68ea-4d82-9d2d-7c848e9f31fd/asset" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="E9" r:id="rId7" display="http://internal-qaplatformagentconfigurationserv-1810934581.us-east-1.elb.amazonaws.com/agent-configuration/v1/batchProfiles" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://internal-intsecurityreportingservice-1794047522.ap-south-1.elb.amazonaws.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://internal-intsecurityreportingservice-1794047522.ap-south-1.elb.amazonaws.com"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://internal-intsecurityportalservice-1892692536.ap-south-1.elb.amazonaws.com"/>
-  </hyperlinks>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>